--- a/Ameen_Week2Homework.xlsx
+++ b/Ameen_Week2Homework.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ameen\Code\SavvyCoders\dap-curriculum\Section02\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ameen\Code\SavvyCoders\Homework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56B4FA81-F0DF-4CE6-93B4-4D8C4DBC6AF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6605BE90-5826-450C-B40C-AADD827237C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -571,7 +571,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,6 +616,13 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -657,7 +664,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -703,26 +710,178 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" indent="3"/>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="55">
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <alignment wrapText="1" indent="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="16"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2344,7 +2503,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[YourName_Week2Homework.xlsx]Payments!PivotTable1</c:name>
+    <c:name>[Ameen_Week2Homework.xlsx]Payments!PivotTable1</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -8031,6 +8190,332 @@
   <dataFields count="1">
     <dataField name="Sum of Tax Inclusive Amount" fld="4" baseField="11" baseItem="1" numFmtId="164"/>
   </dataFields>
+  <formats count="42">
+    <format dxfId="41">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="9" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="4">
+          <reference field="8" count="8">
+            <x v="93"/>
+            <x v="94"/>
+            <x v="95"/>
+            <x v="96"/>
+            <x v="97"/>
+            <x v="98"/>
+            <x v="99"/>
+            <x v="100"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="4">
+          <reference field="8" count="8">
+            <x v="101"/>
+            <x v="102"/>
+            <x v="103"/>
+            <x v="104"/>
+            <x v="105"/>
+            <x v="106"/>
+            <x v="107"/>
+            <x v="108"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="21">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="20">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="9" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="4">
+          <reference field="8" count="8">
+            <x v="93"/>
+            <x v="94"/>
+            <x v="95"/>
+            <x v="96"/>
+            <x v="97"/>
+            <x v="98"/>
+            <x v="99"/>
+            <x v="100"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="16">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="4">
+          <reference field="8" count="8">
+            <x v="101"/>
+            <x v="102"/>
+            <x v="103"/>
+            <x v="104"/>
+            <x v="105"/>
+            <x v="106"/>
+            <x v="107"/>
+            <x v="108"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="15">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="14">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="11">
+      <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea field="6" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="2">
+          <reference field="10" count="1">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="3">
+          <reference field="9" count="2">
+            <x v="1"/>
+            <x v="2"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="3">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="4">
+          <reference field="8" count="8">
+            <x v="93"/>
+            <x v="94"/>
+            <x v="95"/>
+            <x v="96"/>
+            <x v="97"/>
+            <x v="98"/>
+            <x v="99"/>
+            <x v="100"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="2">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="4">
+          <reference field="8" count="8">
+            <x v="101"/>
+            <x v="102"/>
+            <x v="103"/>
+            <x v="104"/>
+            <x v="105"/>
+            <x v="106"/>
+            <x v="107"/>
+            <x v="108"/>
+          </reference>
+          <reference field="9" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+          <reference field="10" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+          <reference field="11" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="1">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="6" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
   <chartFormats count="9">
     <chartFormat chart="0" format="0" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
@@ -8154,18 +8639,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8190DB75-DE3D-4ECB-89D1-1D5AB890E6F2}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="12" dataDxfId="10" headerRowBorderDxfId="11" tableBorderDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8190DB75-DE3D-4ECB-89D1-1D5AB890E6F2}" name="Table1" displayName="Table1" ref="A2:I210" totalsRowShown="0" headerRowDxfId="54" dataDxfId="52" headerRowBorderDxfId="53" tableBorderDxfId="51">
   <autoFilter ref="A2:I210" xr:uid="{8190DB75-DE3D-4ECB-89D1-1D5AB890E6F2}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{57C5712C-BADB-43A0-BAC2-912A00F6AA5B}" name="Document Date" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{9AA30406-AD95-4972-94C6-457203CA0327}" name="Supplier" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{757F727D-7B9E-4526-B09C-8009A244DD1E}" name="Reference" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{FF453503-5E53-4219-91DC-337AAFF3241B}" name="Description" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{3CF04905-4038-4CE4-B35D-3B64D61A976B}" name="Tax Inclusive Amount" dataDxfId="4" dataCellStyle="Comma"/>
-    <tableColumn id="6" xr3:uid="{8D28DC5A-21CF-4159-9DF1-DFDDA742BFB9}" name="Column1" dataDxfId="3"/>
-    <tableColumn id="7" xr3:uid="{6E5C0353-191E-4A7A-BD7C-EA8C179708D2}" name="Bank Code" dataDxfId="2"/>
-    <tableColumn id="8" xr3:uid="{262D0DCF-411B-420C-803F-F050233249F0}" name="Account Code" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{5E75DF8B-D98B-4DCB-A6CE-8A0734228E41}" name="Payment Date" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{57C5712C-BADB-43A0-BAC2-912A00F6AA5B}" name="Document Date" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{9AA30406-AD95-4972-94C6-457203CA0327}" name="Supplier" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{757F727D-7B9E-4526-B09C-8009A244DD1E}" name="Reference" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{FF453503-5E53-4219-91DC-337AAFF3241B}" name="Description" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{3CF04905-4038-4CE4-B35D-3B64D61A976B}" name="Tax Inclusive Amount" dataDxfId="46" dataCellStyle="Comma"/>
+    <tableColumn id="6" xr3:uid="{8D28DC5A-21CF-4159-9DF1-DFDDA742BFB9}" name="Column1" dataDxfId="45"/>
+    <tableColumn id="7" xr3:uid="{6E5C0353-191E-4A7A-BD7C-EA8C179708D2}" name="Bank Code" dataDxfId="44"/>
+    <tableColumn id="8" xr3:uid="{262D0DCF-411B-420C-803F-F050233249F0}" name="Account Code" dataDxfId="43"/>
+    <tableColumn id="9" xr3:uid="{5E75DF8B-D98B-4DCB-A6CE-8A0734228E41}" name="Payment Date" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8907,44 +9392,47 @@
   <dimension ref="A3:E25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>169</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" ht="42" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="20" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
         <v>168</v>
       </c>
@@ -8961,8 +9449,8 @@
         <v>64965.25</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B6" s="21">
@@ -8978,8 +9466,8 @@
         <v>64965.25</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+    <row r="7" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
         <v>172</v>
       </c>
       <c r="B7" s="21">
@@ -8995,8 +9483,8 @@
         <v>30301.25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+    <row r="8" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="22">
         <v>40910</v>
       </c>
       <c r="B8" s="21">
@@ -9008,8 +9496,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="22">
         <v>40913</v>
       </c>
       <c r="B9" s="21">
@@ -9021,8 +9509,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="10" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="22">
         <v>40923</v>
       </c>
       <c r="B10" s="21">
@@ -9036,8 +9524,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+    <row r="11" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="22">
         <v>40924</v>
       </c>
       <c r="B11" s="21">
@@ -9051,8 +9539,8 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="22">
         <v>40928</v>
       </c>
       <c r="B12" s="21">
@@ -9066,8 +9554,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+    <row r="13" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A13" s="22">
         <v>40929</v>
       </c>
       <c r="B13" s="21"/>
@@ -9079,8 +9567,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+    <row r="14" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="22">
         <v>40934</v>
       </c>
       <c r="B14" s="21">
@@ -9094,8 +9582,8 @@
         <v>26720</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+    <row r="15" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A15" s="22">
         <v>40939</v>
       </c>
       <c r="B15" s="21">
@@ -9109,8 +9597,8 @@
         <v>568.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+    <row r="16" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A16" s="20" t="s">
         <v>173</v>
       </c>
       <c r="B16" s="21">
@@ -9126,8 +9614,8 @@
         <v>34664</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    <row r="17" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A17" s="22">
         <v>40941</v>
       </c>
       <c r="B17" s="21">
@@ -9139,8 +9627,8 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    <row r="18" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="22">
         <v>40944</v>
       </c>
       <c r="B18" s="21">
@@ -9152,8 +9640,8 @@
         <v>340</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="19" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="22">
         <v>40954</v>
       </c>
       <c r="B19" s="21">
@@ -9167,8 +9655,8 @@
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="22">
         <v>40959</v>
       </c>
       <c r="B20" s="21">
@@ -9182,8 +9670,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+    <row r="21" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="22">
         <v>40964</v>
       </c>
       <c r="B21" s="21">
@@ -9197,8 +9685,8 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="22">
         <v>40965</v>
       </c>
       <c r="B22" s="21">
@@ -9212,8 +9700,8 @@
         <v>26720</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+    <row r="23" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A23" s="22">
         <v>40966</v>
       </c>
       <c r="B23" s="21">
@@ -9225,8 +9713,8 @@
         <v>514</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:5" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="22">
         <v>40968</v>
       </c>
       <c r="B24" s="21">
@@ -9240,7 +9728,7 @@
         <v>3700</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="20" t="s">
         <v>167</v>
       </c>
